--- a/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="List (CODELABOR 3.0)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List (CODELABOR 3.0)'!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>/themes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>/css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/태그파일명.tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +356,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,17 +665,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
@@ -1234,6 +1252,70 @@
       </c>
       <c r="G29" s="1"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G29"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>/themes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,38 @@
   </si>
   <si>
     <t>/태그파일명.tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/파일명.jspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include 될 jspf 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include 될 jspf 디렉토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP Tag 디렉토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP Tag 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1253,8 +1285,12 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="6" t="s">
         <v>61</v>
       </c>
@@ -1266,8 +1302,12 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" s="6" t="s">
         <v>61</v>
       </c>
@@ -1281,26 +1321,44 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1308,8 +1366,8 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>

--- a/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
@@ -10,14 +10,14 @@
     <sheet name="List (CODELABOR 3.0)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List (CODELABOR 3.0)'!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List (CODELABOR 3.0)'!$A$1:$G$35</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>/themes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,54 @@
   </si>
   <si>
     <t>JSP Tag 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/documentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/seatplan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 문서 디렉토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 문서 디렉토리 (매뉴얼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 문서 디렉토리 (배치도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 문서 디렉토리 (약도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/roughmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 문서 디렉토리 (문서 양식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,17 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
@@ -804,52 +852,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -857,189 +901,167 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
@@ -1048,16 +1070,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
@@ -1069,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>57</v>
@@ -1078,7 +1098,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -1090,77 +1110,79 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
@@ -1169,64 +1191,64 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>0</v>
@@ -1235,16 +1257,14 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -1256,16 +1276,16 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>55</v>
@@ -1277,105 +1297,231 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G29"/>
+  <autoFilter ref="A1:G35"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/web-directory-layout.xlsx
@@ -17,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
-  <si>
-    <t>/themes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>/default</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/WEB-INF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +327,10 @@
   </si>
   <si>
     <t>폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,9 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -748,7 +741,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,36 +756,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -801,13 +794,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -816,16 +809,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -833,32 +826,32 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -867,16 +860,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -884,16 +877,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -901,16 +894,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -918,16 +911,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -935,13 +928,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -950,16 +943,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -967,35 +960,35 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1003,54 +996,54 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1058,390 +1051,390 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1449,35 +1442,35 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1485,19 +1478,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
